--- a/MachineLearning4Tableau.xlsx
+++ b/MachineLearning4Tableau.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianeshomefolder/Documents/git/meteorite-classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C897C-C70A-4E4A-A17C-DCEC27C7619E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AAF0FC-1A67-E34B-9A67-F2DB2E67C1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="540" windowWidth="15760" windowHeight="15660" xr2:uid="{01E7996F-30A2-834D-BBFB-916182B31917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E16C0C9-E704-4447-A07B-005A6FCBBAFE}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -903,7 +905,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -914,13 +916,13 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -928,10 +930,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C43">
-        <v>96.9</v>
+        <v>97.3</v>
       </c>
     </row>
   </sheetData>
